--- a/classification/droptc/sentence/modern-bert/unfreeze/90995999/prediction.xlsx
+++ b/classification/droptc/sentence/modern-bert/unfreeze/90995999/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9957324862480164</v>
+        <v>0.6907237768173218</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9841746687889099</v>
+        <v>0.9993050098419189</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8669883012771606</v>
+        <v>0.9995918869972229</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9980353713035583</v>
+        <v>0.9941250085830688</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9845561981201172</v>
+        <v>0.9995343685150146</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9974422454833984</v>
+        <v>0.9996416568756104</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.993627667427063</v>
+        <v>0.9993500113487244</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9988269209861755</v>
+        <v>0.9999279975891113</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9936015009880066</v>
+        <v>0.9993500113487244</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9864845871925354</v>
+        <v>0.9997476935386658</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9962822794914246</v>
+        <v>0.9997246861457825</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9918566942214966</v>
+        <v>0.9903059005737305</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9625251889228821</v>
+        <v>0.999164342880249</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5951364040374756</v>
+        <v>0.9939064383506775</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9991783499717712</v>
+        <v>0.9997538924217224</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9960076808929443</v>
+        <v>0.9994328618049622</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9509164094924927</v>
+        <v>0.970093846321106</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9966950416564941</v>
+        <v>0.999948263168335</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9988617897033691</v>
+        <v>0.9999328851699829</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9229121804237366</v>
+        <v>0.9998206496238708</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9951598048210144</v>
+        <v>0.9995447993278503</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9958421587944031</v>
+        <v>0.9998806715011597</v>
       </c>
     </row>
     <row r="24">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1103,10 +1103,10 @@
         </is>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9689118266105652</v>
+        <v>0.9996724128723145</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9988275170326233</v>
+        <v>0.8904933929443359</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9990986585617065</v>
+        <v>0.9243686199188232</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9931865930557251</v>
+        <v>0.999594509601593</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9955378770828247</v>
+        <v>0.9993050098419189</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9989500641822815</v>
+        <v>0.9998835325241089</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9982985854148865</v>
+        <v>0.9993895292282104</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9993706345558167</v>
+        <v>0.9990705847740173</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.989916980266571</v>
+        <v>0.9967766404151917</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5015179514884949</v>
+        <v>0.9992125034332275</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9931963682174683</v>
+        <v>0.9937845468521118</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9917511343955994</v>
+        <v>0.9983175992965698</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9994266033172607</v>
+        <v>0.9958913326263428</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9992196559906006</v>
+        <v>0.9990074038505554</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9982417821884155</v>
+        <v>0.9999270439147949</v>
       </c>
     </row>
     <row r="39">
@@ -1519,14 +1519,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9953755140304565</v>
+        <v>0.9975751042366028</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9986034035682678</v>
+        <v>0.9761976599693298</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9991611242294312</v>
+        <v>0.9999730587005615</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.999357283115387</v>
+        <v>0.855008602142334</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9965051412582397</v>
+        <v>0.9981427192687988</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9988742470741272</v>
+        <v>0.9880962371826172</v>
       </c>
     </row>
     <row r="45">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9409906268119812</v>
+        <v>0.9990338087081909</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9988189339637756</v>
+        <v>0.9982104301452637</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.998874843120575</v>
+        <v>0.9869159460067749</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9955701231956482</v>
+        <v>0.9982404708862305</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9993706345558167</v>
+        <v>0.9999784231185913</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9988096952438354</v>
+        <v>0.9943031072616577</v>
       </c>
     </row>
     <row r="51">
@@ -1855,14 +1855,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9936791062355042</v>
+        <v>0.8567581176757812</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9878908395767212</v>
+        <v>0.9955649971961975</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9990900754928589</v>
+        <v>0.9943031072616577</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9928411245346069</v>
+        <v>0.9920834302902222</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9989751577377319</v>
+        <v>0.999609649181366</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9830746054649353</v>
+        <v>0.9999496936798096</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9993870258331299</v>
+        <v>0.9999308586120605</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9988418221473694</v>
+        <v>0.9978698492050171</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9986057877540588</v>
+        <v>0.9998676776885986</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9985851049423218</v>
+        <v>0.9998601675033569</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9931315779685974</v>
+        <v>0.9999386072158813</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9971850514411926</v>
+        <v>0.9996306896209717</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9991100430488586</v>
+        <v>0.9965973496437073</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9891496300697327</v>
+        <v>0.9982268214225769</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.998996913433075</v>
+        <v>0.998640239238739</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9992676377296448</v>
+        <v>0.998640239238739</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.994450569152832</v>
+        <v>0.9964593052864075</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9830746054649353</v>
+        <v>0.998640239238739</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9990471005439758</v>
+        <v>0.9994366765022278</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9990585446357727</v>
+        <v>0.9998145699501038</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9985950589179993</v>
+        <v>0.996025562286377</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9992332458496094</v>
+        <v>0.9991256594657898</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9932235479354858</v>
+        <v>0.9986873269081116</v>
       </c>
     </row>
     <row r="74">
@@ -2499,14 +2499,14 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7822117805480957</v>
+        <v>0.9893662333488464</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9986197948455811</v>
+        <v>0.9998074173927307</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9986259937286377</v>
+        <v>0.9986873269081116</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9993183612823486</v>
+        <v>0.9988331198692322</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9990178346633911</v>
+        <v>0.9986873269081116</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9992027878761292</v>
+        <v>0.9998483657836914</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9993706345558167</v>
+        <v>0.9893575310707092</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9982594847679138</v>
+        <v>0.6664426922798157</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9963914752006531</v>
+        <v>0.9982647299766541</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9993706345558167</v>
+        <v>0.9987393021583557</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9988963603973389</v>
+        <v>0.9987393021583557</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9603127837181091</v>
+        <v>0.9999790191650391</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9906376600265503</v>
+        <v>0.9992735981941223</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9987643957138062</v>
+        <v>0.9998710155487061</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9977002739906311</v>
+        <v>0.9991508722305298</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9987708926200867</v>
+        <v>0.9993440508842468</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9917200803756714</v>
+        <v>0.9999339580535889</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9957324862480164</v>
+        <v>0.9999401569366455</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9963462948799133</v>
+        <v>0.9999270439147949</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9962273836135864</v>
+        <v>0.9999282360076904</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9984543323516846</v>
+        <v>0.9999358654022217</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9920197129249573</v>
+        <v>0.9999295473098755</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9955378770828247</v>
+        <v>0.9998631477355957</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9919819235801697</v>
+        <v>0.9894523620605469</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9992440938949585</v>
+        <v>0.9999698400497437</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5494195222854614</v>
+        <v>0.9998782873153687</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9984520673751831</v>
+        <v>0.9989662170410156</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9988991022109985</v>
+        <v>0.9998990297317505</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9993020296096802</v>
+        <v>0.961279571056366</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.7510181069374084</v>
+        <v>0.9994578957557678</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9989155530929565</v>
+        <v>0.9998462200164795</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.991578221321106</v>
+        <v>0.9995399713516235</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9994469285011292</v>
+        <v>0.9998569488525391</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9660340547561646</v>
+        <v>0.8654676079750061</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.998873770236969</v>
+        <v>0.9942461848258972</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9960132837295532</v>
+        <v>0.9998385906219482</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9991325736045837</v>
+        <v>0.9993050098419189</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9986242055892944</v>
+        <v>0.999190628528595</v>
       </c>
     </row>
     <row r="112">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3567,10 +3567,10 @@
         </is>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7371015548706055</v>
+        <v>0.9990463852882385</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9910061955451965</v>
+        <v>0.9983174800872803</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9854295253753662</v>
+        <v>0.9999374151229858</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9956198334693909</v>
+        <v>0.998376727104187</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.362367570400238</v>
+        <v>0.8885505795478821</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9987416863441467</v>
+        <v>0.9994058609008789</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9992765784263611</v>
+        <v>0.9816247820854187</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9991606473922729</v>
+        <v>0.9841648936271667</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9987751841545105</v>
+        <v>0.9993050098419189</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9886628985404968</v>
+        <v>0.9984669089317322</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9923611283302307</v>
+        <v>0.9999657869338989</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9984593391418457</v>
+        <v>0.9984669089317322</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9974835515022278</v>
+        <v>0.9999657869338989</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9820906519889832</v>
+        <v>0.9984669089317322</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9935449361801147</v>
+        <v>0.9999735355377197</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9910061955451965</v>
+        <v>0.9592490792274475</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9990741014480591</v>
+        <v>0.9993050098419189</v>
       </c>
     </row>
     <row r="129">
@@ -4039,14 +4039,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9990900754928589</v>
+        <v>0.9393978714942932</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9980672001838684</v>
+        <v>0.9932568073272705</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9987346529960632</v>
+        <v>0.9995825886726379</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9956333041191101</v>
+        <v>0.5505362153053284</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9987719655036926</v>
+        <v>0.9998602867126465</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9983148574829102</v>
+        <v>0.9031235575675964</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9987677335739136</v>
+        <v>0.9996067881584167</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9955378770828247</v>
+        <v>0.9998465776443481</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9992929697036743</v>
+        <v>0.9997963309288025</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9583595395088196</v>
+        <v>0.999739944934845</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9854295253753662</v>
+        <v>0.9998388290405273</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9989288449287415</v>
+        <v>0.9994965791702271</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8544080257415771</v>
+        <v>0.8839262127876282</v>
       </c>
     </row>
     <row r="142">
@@ -4403,14 +4403,14 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.3959472477436066</v>
+        <v>0.9993050098419189</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9920864701271057</v>
+        <v>0.982930600643158</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9991710186004639</v>
+        <v>0.9999301433563232</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.998945415019989</v>
+        <v>0.982930600643158</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9395157098770142</v>
+        <v>0.9994132518768311</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9986584186553955</v>
+        <v>0.9994366765022278</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9944061040878296</v>
+        <v>0.999846339225769</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9991300702095032</v>
+        <v>0.9961812496185303</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9910061955451965</v>
+        <v>0.8585028052330017</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E151" t="b">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9923611283302307</v>
+        <v>0.9993050098419189</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9902380108833313</v>
+        <v>0.6308169960975647</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9985108971595764</v>
+        <v>0.9999436140060425</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9960516095161438</v>
+        <v>0.997933030128479</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.80790776014328</v>
+        <v>0.9999226331710815</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9993818998336792</v>
+        <v>0.9969906806945801</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7142472267150879</v>
+        <v>0.9999443292617798</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9957324862480164</v>
+        <v>0.9918739199638367</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9675929546356201</v>
+        <v>0.999951958656311</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9400068521499634</v>
+        <v>0.8727378845214844</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.999371349811554</v>
+        <v>0.9998319149017334</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9586995840072632</v>
+        <v>0.9999645948410034</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9954829216003418</v>
+        <v>0.9971805810928345</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9987303614616394</v>
+        <v>0.9966668486595154</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9993706345558167</v>
+        <v>0.999972939491272</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9983440637588501</v>
+        <v>0.9930344820022583</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9917511343955994</v>
+        <v>0.9881848096847534</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9991099238395691</v>
+        <v>0.8767885565757751</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.849881112575531</v>
+        <v>0.9993050098419189</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9988652467727661</v>
+        <v>0.9881848096847534</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9992665648460388</v>
+        <v>0.9726539254188538</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9941250085830688</v>
+        <v>0.9993050098419189</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9278386831283569</v>
+        <v>0.9999260902404785</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9985223412513733</v>
+        <v>0.9997439980506897</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9947916269302368</v>
+        <v>0.9999260902404785</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5169090628623962</v>
+        <v>0.9999030828475952</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9986163377761841</v>
+        <v>0.9997439980506897</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9800407886505127</v>
+        <v>0.9999427795410156</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9435029029846191</v>
+        <v>0.9996117949485779</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9980353713035583</v>
+        <v>0.9996824264526367</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9974574446678162</v>
+        <v>0.9996367692947388</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9993190765380859</v>
+        <v>0.9994727969169617</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9989126920700073</v>
+        <v>0.9982641339302063</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9895750880241394</v>
+        <v>0.999950647354126</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9987751841545105</v>
+        <v>0.9998793601989746</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9983832836151123</v>
+        <v>0.9999120235443115</v>
       </c>
     </row>
     <row r="187">
@@ -5658,19 +5658,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E187" t="b">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9934346675872803</v>
+        <v>0.9998948574066162</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9993021488189697</v>
+        <v>0.9997490048408508</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9729810953140259</v>
+        <v>0.99985671043396</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9989718198776245</v>
+        <v>0.9998658895492554</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9866446852684021</v>
+        <v>0.8412540555000305</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9993706345558167</v>
+        <v>0.9997509121894836</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9742694497108459</v>
+        <v>0.9986788630485535</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9993706345558167</v>
+        <v>0.9982219338417053</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9992663264274597</v>
+        <v>0.9977880716323853</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9988186955451965</v>
+        <v>0.9998759031295776</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9988499879837036</v>
+        <v>0.9999241828918457</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9985514283180237</v>
+        <v>0.9999380111694336</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9990071654319763</v>
+        <v>0.999692440032959</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.998754620552063</v>
+        <v>0.8117430806159973</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.894185483455658</v>
+        <v>0.9998906850814819</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9991099238395691</v>
+        <v>0.9999064207077026</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9993706345558167</v>
+        <v>0.9995775818824768</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9957672357559204</v>
+        <v>0.9950399994850159</v>
       </c>
     </row>
     <row r="205">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9915046095848083</v>
+        <v>0.9998745918273926</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9709992408752441</v>
+        <v>0.9996905326843262</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9930994510650635</v>
+        <v>0.9871391654014587</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9984301924705505</v>
+        <v>0.9955822825431824</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9993706345558167</v>
+        <v>0.9705219268798828</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9988269209861755</v>
+        <v>0.9996757507324219</v>
       </c>
     </row>
   </sheetData>
